--- a/data/centers_with_google_maps_and_website_information.xlsx
+++ b/data/centers_with_google_maps_and_website_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faria\yw\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B05E5C-948E-44EF-9BE1-902068DD9575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD241E26-237D-425F-9B7F-FC6675E2881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15626,9 +15626,13 @@
       <selection pane="bottomLeft" activeCell="A562" sqref="A562"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15690,7 +15694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -15740,7 +15744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -15778,7 +15782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -15831,7 +15835,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -15887,7 +15891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -15946,7 +15950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -16002,7 +16006,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -16055,7 +16059,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -16108,7 +16112,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -16161,7 +16165,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -16199,7 +16203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -16243,7 +16247,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -16296,7 +16300,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -16343,7 +16347,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -16390,7 +16394,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -16437,7 +16441,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -16475,7 +16479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -16534,7 +16538,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -16569,7 +16573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -16607,7 +16611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -16654,7 +16658,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -16707,7 +16711,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -16763,7 +16767,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -16816,7 +16820,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -16869,7 +16873,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -16922,7 +16926,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -16975,7 +16979,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -17028,7 +17032,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -17063,7 +17067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -17110,7 +17114,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -17163,7 +17167,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -17219,7 +17223,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -17263,7 +17267,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -17316,7 +17320,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -17369,7 +17373,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -17422,7 +17426,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -17457,7 +17461,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -17507,7 +17511,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -17551,7 +17555,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -17604,7 +17608,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -17654,7 +17658,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -17707,7 +17711,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -17766,7 +17770,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -17822,7 +17826,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -17866,7 +17870,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -17913,7 +17917,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -17966,7 +17970,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -18019,7 +18023,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -18054,7 +18058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -18104,7 +18108,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -18154,7 +18158,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -18213,7 +18217,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -18260,7 +18264,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -18319,7 +18323,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -18363,7 +18367,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -18392,7 +18396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -18439,7 +18443,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -18489,7 +18493,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -18524,7 +18528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -18580,7 +18584,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -18627,7 +18631,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -18671,7 +18675,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -18724,7 +18728,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -18759,7 +18763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -18815,7 +18819,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -18853,7 +18857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -18891,7 +18895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -18935,7 +18939,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -18970,7 +18974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -19029,7 +19033,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -19082,7 +19086,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -19135,7 +19139,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -19185,7 +19189,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -19220,7 +19224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -19270,7 +19274,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -19326,7 +19330,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -19367,7 +19371,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -19420,7 +19424,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -19476,7 +19480,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -19511,7 +19515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -19561,7 +19565,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -19602,7 +19606,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -19649,7 +19653,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -19699,7 +19703,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -19746,7 +19750,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -19781,7 +19785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -19819,7 +19823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -19869,7 +19873,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -19922,7 +19926,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -19972,7 +19976,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -20025,7 +20029,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -20075,7 +20079,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -20122,7 +20126,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -20178,7 +20182,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -20213,7 +20217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -20266,7 +20270,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -20301,7 +20305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -20348,7 +20352,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -20395,7 +20399,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -20448,7 +20452,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -20501,7 +20505,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -20542,7 +20546,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -20595,7 +20599,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -20651,7 +20655,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -20704,7 +20708,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -20757,7 +20761,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -20813,7 +20817,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -20851,7 +20855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -20901,7 +20905,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -20954,7 +20958,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -21004,7 +21008,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -21045,7 +21049,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -21089,7 +21093,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -21124,7 +21128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -21177,7 +21181,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -21224,7 +21228,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -21274,7 +21278,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -21327,7 +21331,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -21356,7 +21360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -21400,7 +21404,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -21447,7 +21451,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -21491,7 +21495,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -21538,7 +21542,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -21582,7 +21586,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -21635,7 +21639,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -21682,7 +21686,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -21741,7 +21745,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -21797,7 +21801,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -21856,7 +21860,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -21912,7 +21916,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -21959,7 +21963,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -22018,7 +22022,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -22068,7 +22072,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -22124,7 +22128,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -22165,7 +22169,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -22221,7 +22225,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -22268,7 +22272,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -22327,7 +22331,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -22368,7 +22372,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -22412,7 +22416,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -22462,7 +22466,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -22521,7 +22525,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -22577,7 +22581,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -22630,7 +22634,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -22677,7 +22681,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -22715,7 +22719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -22768,7 +22772,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -22824,7 +22828,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>20</v>
       </c>
@@ -22874,7 +22878,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -22933,7 +22937,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -22980,7 +22984,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -23027,7 +23031,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>20</v>
       </c>
@@ -23080,7 +23084,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -23118,7 +23122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -23174,7 +23178,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -23218,7 +23222,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -23271,7 +23275,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>20</v>
       </c>
@@ -23309,7 +23313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>20</v>
       </c>
@@ -23359,7 +23363,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -23403,7 +23407,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -23447,7 +23451,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>20</v>
       </c>
@@ -23488,7 +23492,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -23535,7 +23539,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -23585,7 +23589,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>20</v>
       </c>
@@ -23620,7 +23624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>20</v>
       </c>
@@ -23664,7 +23668,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>20</v>
       </c>
@@ -23711,7 +23715,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>20</v>
       </c>
@@ -23761,7 +23765,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -23808,7 +23812,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -23858,7 +23862,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>20</v>
       </c>
@@ -23908,7 +23912,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -23958,7 +23962,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -24008,7 +24012,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -24046,7 +24050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -24087,7 +24091,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -24128,7 +24132,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -24169,7 +24173,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -24222,7 +24226,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -24278,7 +24282,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -24325,7 +24329,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -24378,7 +24382,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>20</v>
       </c>
@@ -24416,7 +24420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>20</v>
       </c>
@@ -24460,7 +24464,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>20</v>
       </c>
@@ -24507,7 +24511,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>20</v>
       </c>
@@ -24539,7 +24543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>20</v>
       </c>
@@ -24583,7 +24587,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -24636,7 +24640,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>20</v>
       </c>
@@ -24680,7 +24684,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -24733,7 +24737,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -24792,7 +24796,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>20</v>
       </c>
@@ -24827,7 +24831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>20</v>
       </c>
@@ -24862,7 +24866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>20</v>
       </c>
@@ -24912,7 +24916,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>20</v>
       </c>
@@ -24950,7 +24954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>20</v>
       </c>
@@ -25006,7 +25010,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>20</v>
       </c>
@@ -25056,7 +25060,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>20</v>
       </c>
@@ -25109,7 +25113,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>20</v>
       </c>
@@ -25168,7 +25172,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>20</v>
       </c>
@@ -25206,7 +25210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>20</v>
       </c>
@@ -25241,7 +25245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>20</v>
       </c>
@@ -25294,7 +25298,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>20</v>
       </c>
@@ -25350,7 +25354,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>20</v>
       </c>
@@ -25385,7 +25389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>20</v>
       </c>
@@ -25423,7 +25427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>20</v>
       </c>
@@ -25452,7 +25456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>20</v>
       </c>
@@ -25487,7 +25491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>20</v>
       </c>
@@ -25540,7 +25544,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>20</v>
       </c>
@@ -25599,7 +25603,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>20</v>
       </c>
@@ -25655,7 +25659,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>20</v>
       </c>
@@ -25711,7 +25715,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>20</v>
       </c>
@@ -25755,7 +25759,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>20</v>
       </c>
@@ -25805,7 +25809,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>20</v>
       </c>
@@ -25852,7 +25856,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>20</v>
       </c>
@@ -25899,7 +25903,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>20</v>
       </c>
@@ -25949,7 +25953,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>20</v>
       </c>
@@ -25990,7 +25994,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>20</v>
       </c>
@@ -26028,7 +26032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>20</v>
       </c>
@@ -26084,7 +26088,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>20</v>
       </c>
@@ -26134,7 +26138,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>20</v>
       </c>
@@ -26178,7 +26182,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -26213,7 +26217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>20</v>
       </c>
@@ -26269,7 +26273,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>20</v>
       </c>
@@ -26304,7 +26308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>20</v>
       </c>
@@ -26354,7 +26358,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>20</v>
       </c>
@@ -26410,7 +26414,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>20</v>
       </c>
@@ -26460,7 +26464,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>20</v>
       </c>
@@ -26498,7 +26502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -26545,7 +26549,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>20</v>
       </c>
@@ -26598,7 +26602,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>20</v>
       </c>
@@ -26651,7 +26655,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>20</v>
       </c>
@@ -26680,7 +26684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>20</v>
       </c>
@@ -26730,7 +26734,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>20</v>
       </c>
@@ -26783,7 +26787,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>20</v>
       </c>
@@ -26836,7 +26840,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>20</v>
       </c>
@@ -26892,7 +26896,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>20</v>
       </c>
@@ -26948,7 +26952,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>2124</v>
       </c>
@@ -26998,7 +27002,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>20</v>
       </c>
@@ -27048,7 +27052,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>20</v>
       </c>
@@ -27098,7 +27102,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>20</v>
       </c>
@@ -27127,7 +27131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>20</v>
       </c>
@@ -27168,7 +27172,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>20</v>
       </c>
@@ -27218,7 +27222,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -27277,7 +27281,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>20</v>
       </c>
@@ -27330,7 +27334,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>20</v>
       </c>
@@ -27377,7 +27381,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -27433,7 +27437,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>20</v>
       </c>
@@ -27492,7 +27496,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>20</v>
       </c>
@@ -27539,7 +27543,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>20</v>
       </c>
@@ -27586,7 +27590,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>20</v>
       </c>
@@ -27645,7 +27649,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>20</v>
       </c>
@@ -27689,7 +27693,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -27733,7 +27737,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>20</v>
       </c>
@@ -27783,7 +27787,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -27818,7 +27822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>20</v>
       </c>
@@ -27862,7 +27866,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>20</v>
       </c>
@@ -27909,7 +27913,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>20</v>
       </c>
@@ -27947,7 +27951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>20</v>
       </c>
@@ -28003,7 +28007,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>20</v>
       </c>
@@ -28053,7 +28057,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>20</v>
       </c>
@@ -28094,7 +28098,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>20</v>
       </c>
@@ -28144,7 +28148,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -28182,7 +28186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>20</v>
       </c>
@@ -28217,7 +28221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>20</v>
       </c>
@@ -28270,7 +28274,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>20</v>
       </c>
@@ -28323,7 +28327,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>20</v>
       </c>
@@ -28361,7 +28365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>20</v>
       </c>
@@ -28408,7 +28412,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>20</v>
       </c>
@@ -28458,7 +28462,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>20</v>
       </c>
@@ -28493,7 +28497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>20</v>
       </c>
@@ -28546,7 +28550,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>20</v>
       </c>
@@ -28596,7 +28600,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>20</v>
       </c>
@@ -28631,7 +28635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>20</v>
       </c>
@@ -28681,7 +28685,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>20</v>
       </c>
@@ -28719,7 +28723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>20</v>
       </c>
@@ -28763,7 +28767,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>20</v>
       </c>
@@ -28822,7 +28826,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>20</v>
       </c>
@@ -28869,7 +28873,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>20</v>
       </c>
@@ -28910,7 +28914,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>20</v>
       </c>
@@ -28963,7 +28967,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>20</v>
       </c>
@@ -29007,7 +29011,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>20</v>
       </c>
@@ -29057,7 +29061,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>20</v>
       </c>
@@ -29104,7 +29108,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>20</v>
       </c>
@@ -29157,7 +29161,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>20</v>
       </c>
@@ -29207,7 +29211,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>20</v>
       </c>
@@ -29257,7 +29261,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>20</v>
       </c>
@@ -29307,7 +29311,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>20</v>
       </c>
@@ -29342,7 +29346,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>20</v>
       </c>
@@ -29389,7 +29393,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>20</v>
       </c>
@@ -29442,7 +29446,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>20</v>
       </c>
@@ -29486,7 +29490,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>20</v>
       </c>
@@ -29521,7 +29525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>2583</v>
       </c>
@@ -29568,7 +29572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -29621,7 +29625,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>20</v>
       </c>
@@ -29671,7 +29675,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>20</v>
       </c>
@@ -29700,7 +29704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>20</v>
       </c>
@@ -29756,7 +29760,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>20</v>
       </c>
@@ -29797,7 +29801,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>20</v>
       </c>
@@ -29847,7 +29851,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>20</v>
       </c>
@@ -29891,7 +29895,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>20</v>
       </c>
@@ -29941,7 +29945,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>20</v>
       </c>
@@ -29997,7 +30001,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>20</v>
       </c>
@@ -30032,7 +30036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>20</v>
       </c>
@@ -30085,7 +30089,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>20</v>
       </c>
@@ -30147,7 +30151,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>20</v>
       </c>
@@ -30209,7 +30213,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>20</v>
       </c>
@@ -30250,7 +30254,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>20</v>
       </c>
@@ -30306,7 +30310,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>20</v>
       </c>
@@ -30359,7 +30363,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>20</v>
       </c>
@@ -30415,7 +30419,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>20</v>
       </c>
@@ -30477,7 +30481,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>20</v>
       </c>
@@ -30530,7 +30534,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>20</v>
       </c>
@@ -30568,7 +30572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>20</v>
       </c>
@@ -30606,7 +30610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>20</v>
       </c>
@@ -30647,7 +30651,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>20</v>
       </c>
@@ -30703,7 +30707,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>20</v>
       </c>
@@ -30756,7 +30760,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>20</v>
       </c>
@@ -30794,7 +30798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>20</v>
       </c>
@@ -30850,7 +30854,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>20</v>
       </c>
@@ -30885,7 +30889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>20</v>
       </c>
@@ -30932,7 +30936,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>20</v>
       </c>
@@ -30991,7 +30995,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>20</v>
       </c>
@@ -31044,7 +31048,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>20</v>
       </c>
@@ -31097,7 +31101,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>20</v>
       </c>
@@ -31147,7 +31151,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>20</v>
       </c>
@@ -31194,7 +31198,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>20</v>
       </c>
@@ -31247,7 +31251,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>20</v>
       </c>
@@ -31300,7 +31304,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>20</v>
       </c>
@@ -31344,7 +31348,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>20</v>
       </c>
@@ -31382,7 +31386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>20</v>
       </c>
@@ -31435,7 +31439,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>20</v>
       </c>
@@ -31476,7 +31480,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>20</v>
       </c>
@@ -31529,7 +31533,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>20</v>
       </c>
@@ -31588,7 +31592,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>20</v>
       </c>
@@ -31644,7 +31648,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>20</v>
       </c>
@@ -31697,7 +31701,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>20</v>
       </c>
@@ -31750,7 +31754,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>20</v>
       </c>
@@ -31794,7 +31798,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>20</v>
       </c>
@@ -31847,7 +31851,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>20</v>
       </c>
@@ -31885,7 +31889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>20</v>
       </c>
@@ -31941,7 +31945,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>20</v>
       </c>
@@ -31982,7 +31986,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>20</v>
       </c>
@@ -32026,7 +32030,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>20</v>
       </c>
@@ -32082,7 +32086,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>20</v>
       </c>
@@ -32129,7 +32133,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>20</v>
       </c>
@@ -32179,7 +32183,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>20</v>
       </c>
@@ -32232,7 +32236,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>20</v>
       </c>
@@ -32276,7 +32280,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>20</v>
       </c>
@@ -32320,7 +32324,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>20</v>
       </c>
@@ -32373,7 +32377,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>20</v>
       </c>
@@ -32414,7 +32418,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>20</v>
       </c>
@@ -32470,7 +32474,7 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>20</v>
       </c>
@@ -32526,7 +32530,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>20</v>
       </c>
@@ -32579,7 +32583,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>20</v>
       </c>
@@ -32617,7 +32621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>20</v>
       </c>
@@ -32661,7 +32665,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>20</v>
       </c>
@@ -32708,7 +32712,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>20</v>
       </c>
@@ -32767,7 +32771,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>20</v>
       </c>
@@ -32811,7 +32815,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>20</v>
       </c>
@@ -32849,7 +32853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>20</v>
       </c>
@@ -32905,7 +32909,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>20</v>
       </c>
@@ -32955,7 +32959,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>20</v>
       </c>
@@ -33008,7 +33012,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>20</v>
       </c>
@@ -33043,7 +33047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>20</v>
       </c>
@@ -33096,7 +33100,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>20</v>
       </c>
@@ -33146,7 +33150,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>20</v>
       </c>
@@ -33196,7 +33200,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>20</v>
       </c>
@@ -33234,7 +33238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>20</v>
       </c>
@@ -33269,7 +33273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>20</v>
       </c>
@@ -33319,7 +33323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>20</v>
       </c>
@@ -33360,7 +33364,7 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>20</v>
       </c>
@@ -33407,7 +33411,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>20</v>
       </c>
@@ -33460,7 +33464,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>20</v>
       </c>
@@ -33507,7 +33511,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>20</v>
       </c>
@@ -33557,7 +33561,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>20</v>
       </c>
@@ -33607,7 +33611,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>20</v>
       </c>
@@ -33645,7 +33649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>20</v>
       </c>
@@ -33695,7 +33699,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>20</v>
       </c>
@@ -33724,7 +33728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>20</v>
       </c>
@@ -33768,7 +33772,7 @@
         <v>3361</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>20</v>
       </c>
@@ -33818,7 +33822,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>20</v>
       </c>
@@ -33865,7 +33869,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>20</v>
       </c>
@@ -33912,7 +33916,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>20</v>
       </c>
@@ -33962,7 +33966,7 @@
         <v>3398</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>20</v>
       </c>
@@ -34009,7 +34013,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>20</v>
       </c>
@@ -34062,7 +34066,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>20</v>
       </c>
@@ -34103,7 +34107,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>20</v>
       </c>
@@ -34153,7 +34157,7 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>20</v>
       </c>
@@ -34197,7 +34201,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>20</v>
       </c>
@@ -34253,7 +34257,7 @@
         <v>3454</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>20</v>
       </c>
@@ -34303,7 +34307,7 @@
         <v>3464</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>20</v>
       </c>
@@ -34356,7 +34360,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>20</v>
       </c>
@@ -34394,7 +34398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>20</v>
       </c>
@@ -34438,7 +34442,7 @@
         <v>3484</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>20</v>
       </c>
@@ -34488,7 +34492,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>20</v>
       </c>
@@ -34532,7 +34536,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>20</v>
       </c>
@@ -34579,7 +34583,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>20</v>
       </c>
@@ -34617,7 +34621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>20</v>
       </c>
@@ -34670,7 +34674,7 @@
         <v>3522</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>20</v>
       </c>
@@ -34723,7 +34727,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>20</v>
       </c>
@@ -34776,7 +34780,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>20</v>
       </c>
@@ -34826,7 +34830,7 @@
         <v>3546</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>20</v>
       </c>
@@ -34879,7 +34883,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>20</v>
       </c>
@@ -34917,7 +34921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>20</v>
       </c>
@@ -34964,7 +34968,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>20</v>
       </c>
@@ -35023,7 +35027,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>20</v>
       </c>
@@ -35067,7 +35071,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>20</v>
       </c>
@@ -35111,7 +35115,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>20</v>
       </c>
@@ -35167,7 +35171,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>20</v>
       </c>
@@ -35217,7 +35221,7 @@
         <v>3621</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>20</v>
       </c>
@@ -35267,7 +35271,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>20</v>
       </c>
@@ -35305,7 +35309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>20</v>
       </c>
@@ -35334,7 +35338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>20</v>
       </c>
@@ -35381,7 +35385,7 @@
         <v>3647</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>20</v>
       </c>
@@ -35437,7 +35441,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>20</v>
       </c>
@@ -35484,7 +35488,7 @@
         <v>3667</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>20</v>
       </c>
@@ -35525,7 +35529,7 @@
         <v>3674</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>20</v>
       </c>
@@ -35581,7 +35585,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>20</v>
       </c>
@@ -35622,7 +35626,7 @@
         <v>3688</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>20</v>
       </c>
@@ -35669,7 +35673,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>20</v>
       </c>
@@ -35707,7 +35711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>20</v>
       </c>
@@ -35742,7 +35746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>20</v>
       </c>
@@ -35795,7 +35799,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>2583</v>
       </c>
@@ -35833,7 +35837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>20</v>
       </c>
@@ -35883,7 +35887,7 @@
         <v>3733</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>2583</v>
       </c>
@@ -35921,7 +35925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>20</v>
       </c>
@@ -35977,7 +35981,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>20</v>
       </c>
@@ -36024,7 +36028,7 @@
         <v>3758</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>20</v>
       </c>
@@ -36074,7 +36078,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>20</v>
       </c>
@@ -36118,7 +36122,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>20</v>
       </c>
@@ -36174,7 +36178,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>20</v>
       </c>
@@ -36221,7 +36225,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>20</v>
       </c>
@@ -36277,7 +36281,7 @@
         <v>3807</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>20</v>
       </c>
@@ -36315,7 +36319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>20</v>
       </c>
@@ -36365,7 +36369,7 @@
         <v>3823</v>
       </c>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>20</v>
       </c>
@@ -36406,7 +36410,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>20</v>
       </c>
@@ -36459,7 +36463,7 @@
         <v>3838</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>20</v>
       </c>
@@ -36509,7 +36513,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>20</v>
       </c>
@@ -36559,7 +36563,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>20</v>
       </c>
@@ -36603,7 +36607,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>20</v>
       </c>
@@ -36644,7 +36648,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>20</v>
       </c>
@@ -36688,7 +36692,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>20</v>
       </c>
@@ -36735,7 +36739,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>20</v>
       </c>
@@ -36779,7 +36783,7 @@
         <v>3891</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>20</v>
       </c>
@@ -36832,7 +36836,7 @@
         <v>3901</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>20</v>
       </c>
@@ -36882,7 +36886,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>20</v>
       </c>
@@ -36929,7 +36933,7 @@
         <v>3920</v>
       </c>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>20</v>
       </c>
@@ -36976,7 +36980,7 @@
         <v>3929</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>20</v>
       </c>
@@ -37020,7 +37024,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>20</v>
       </c>
@@ -37079,7 +37083,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>20</v>
       </c>
@@ -37114,7 +37118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>20</v>
       </c>
@@ -37149,7 +37153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>20</v>
       </c>
@@ -37184,7 +37188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>20</v>
       </c>
@@ -37234,7 +37238,7 @@
         <v>3974</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>20</v>
       </c>
@@ -37278,7 +37282,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>20</v>
       </c>
@@ -37331,7 +37335,7 @@
         <v>3993</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>20</v>
       </c>
@@ -37369,7 +37373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>20</v>
       </c>
@@ -37410,7 +37414,7 @@
         <v>4005</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>20</v>
       </c>
@@ -37463,7 +37467,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>20</v>
       </c>
@@ -37516,7 +37520,7 @@
         <v>4026</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>20</v>
       </c>
@@ -37554,7 +37558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>20</v>
       </c>
@@ -37604,7 +37608,7 @@
         <v>4042</v>
       </c>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>20</v>
       </c>
@@ -37645,7 +37649,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>20</v>
       </c>
@@ -37680,7 +37684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>20</v>
       </c>
@@ -37715,7 +37719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>20</v>
       </c>
@@ -37753,7 +37757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>20</v>
       </c>
@@ -37809,7 +37813,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>20</v>
       </c>
@@ -37856,7 +37860,7 @@
         <v>4079</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>20</v>
       </c>
@@ -37891,7 +37895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>20</v>
       </c>
@@ -37944,7 +37948,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>20</v>
       </c>
@@ -38000,7 +38004,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>20</v>
       </c>
@@ -38038,7 +38042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>20</v>
       </c>
@@ -38073,7 +38077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>20</v>
       </c>
@@ -38123,7 +38127,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>20</v>
       </c>
@@ -38173,7 +38177,7 @@
         <v>4136</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>20</v>
       </c>
@@ -38208,7 +38212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>20</v>
       </c>
@@ -38246,7 +38250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>20</v>
       </c>
@@ -38296,7 +38300,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>20</v>
       </c>
@@ -38331,7 +38335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>20</v>
       </c>
@@ -38384,7 +38388,7 @@
         <v>4172</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>20</v>
       </c>
@@ -38434,7 +38438,7 @@
         <v>4182</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>20</v>
       </c>
@@ -38481,7 +38485,7 @@
         <v>4191</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>20</v>
       </c>
@@ -38519,7 +38523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>20</v>
       </c>
@@ -38575,7 +38579,7 @@
         <v>4205</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>20</v>
       </c>
@@ -38625,7 +38629,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>20</v>
       </c>
@@ -38660,7 +38664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>20</v>
       </c>
@@ -38719,7 +38723,7 @@
         <v>4232</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>20</v>
       </c>
@@ -38772,7 +38776,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>20</v>
       </c>
@@ -38831,7 +38835,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>20</v>
       </c>
@@ -38878,7 +38882,7 @@
         <v>4264</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>20</v>
       </c>
@@ -38928,7 +38932,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>20</v>
       </c>
@@ -38984,7 +38988,7 @@
         <v>4285</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>20</v>
       </c>
@@ -39028,7 +39032,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>20</v>
       </c>
@@ -39084,7 +39088,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>20</v>
       </c>
@@ -39134,7 +39138,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>20</v>
       </c>
@@ -39184,7 +39188,7 @@
         <v>4323</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>20</v>
       </c>
@@ -39222,7 +39226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>20</v>
       </c>
@@ -39275,7 +39279,7 @@
         <v>4340</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>20</v>
       </c>
@@ -39334,7 +39338,7 @@
         <v>4353</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>20</v>
       </c>
@@ -39384,7 +39388,7 @@
         <v>4363</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>20</v>
       </c>
@@ -39434,7 +39438,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>20</v>
       </c>
@@ -39490,7 +39494,7 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>20</v>
       </c>
@@ -39540,7 +39544,7 @@
         <v>4393</v>
       </c>
     </row>
-    <row r="503" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>20</v>
       </c>
@@ -39575,7 +39579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>20</v>
       </c>
@@ -39610,7 +39614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>20</v>
       </c>
@@ -39663,7 +39667,7 @@
         <v>4414</v>
       </c>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>20</v>
       </c>
@@ -39710,7 +39714,7 @@
         <v>4423</v>
       </c>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>20</v>
       </c>
@@ -39763,7 +39767,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>20</v>
       </c>
@@ -39810,7 +39814,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>20</v>
       </c>
@@ -39866,7 +39870,7 @@
         <v>4449</v>
       </c>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>20</v>
       </c>
@@ -39901,7 +39905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>20</v>
       </c>
@@ -39939,7 +39943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>20</v>
       </c>
@@ -39986,7 +39990,7 @@
         <v>4469</v>
       </c>
     </row>
-    <row r="513" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>20</v>
       </c>
@@ -40024,7 +40028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>20</v>
       </c>
@@ -40074,7 +40078,7 @@
         <v>4482</v>
       </c>
     </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>20</v>
       </c>
@@ -40130,7 +40134,7 @@
         <v>4494</v>
       </c>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>20</v>
       </c>
@@ -40180,7 +40184,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>20</v>
       </c>
@@ -40227,7 +40231,7 @@
         <v>4511</v>
       </c>
     </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>20</v>
       </c>
@@ -40271,7 +40275,7 @@
         <v>4519</v>
       </c>
     </row>
-    <row r="519" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>20</v>
       </c>
@@ -40327,7 +40331,7 @@
         <v>4531</v>
       </c>
     </row>
-    <row r="520" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>20</v>
       </c>
@@ -40377,7 +40381,7 @@
         <v>4541</v>
       </c>
     </row>
-    <row r="521" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>20</v>
       </c>
@@ -40430,7 +40434,7 @@
         <v>4547</v>
       </c>
     </row>
-    <row r="522" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>20</v>
       </c>
@@ -40486,7 +40490,7 @@
         <v>4559</v>
       </c>
     </row>
-    <row r="523" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>20</v>
       </c>
@@ -40524,7 +40528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>20</v>
       </c>
@@ -40562,7 +40566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>20</v>
       </c>
@@ -40600,7 +40604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>20</v>
       </c>
@@ -40653,7 +40657,7 @@
         <v>4587</v>
       </c>
     </row>
-    <row r="527" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>20</v>
       </c>
@@ -40694,7 +40698,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="528" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>20</v>
       </c>
@@ -40723,7 +40727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>20</v>
       </c>
@@ -40776,7 +40780,7 @@
         <v>4609</v>
       </c>
     </row>
-    <row r="530" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>20</v>
       </c>
@@ -40814,7 +40818,7 @@
         <v>4617</v>
       </c>
     </row>
-    <row r="531" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>20</v>
       </c>
@@ -40870,7 +40874,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="532" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>20</v>
       </c>
@@ -40908,7 +40912,7 @@
         <v>4635</v>
       </c>
     </row>
-    <row r="533" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>20</v>
       </c>
@@ -40967,7 +40971,7 @@
         <v>4648</v>
       </c>
     </row>
-    <row r="534" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>20</v>
       </c>
@@ -41023,7 +41027,7 @@
         <v>4660</v>
       </c>
     </row>
-    <row r="535" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>20</v>
       </c>
@@ -41076,7 +41080,7 @@
         <v>4670</v>
       </c>
     </row>
-    <row r="536" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>20</v>
       </c>
@@ -41123,7 +41127,7 @@
         <v>4679</v>
       </c>
     </row>
-    <row r="537" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>20</v>
       </c>
@@ -41167,7 +41171,7 @@
         <v>4687</v>
       </c>
     </row>
-    <row r="538" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>20</v>
       </c>
@@ -41223,7 +41227,7 @@
         <v>4695</v>
       </c>
     </row>
-    <row r="539" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>20</v>
       </c>
@@ -41255,7 +41259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>20</v>
       </c>
@@ -41305,7 +41309,7 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="541" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>20</v>
       </c>
@@ -41346,7 +41350,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="542" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>20</v>
       </c>
@@ -41399,7 +41403,7 @@
         <v>4726</v>
       </c>
     </row>
-    <row r="543" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>20</v>
       </c>
@@ -41449,7 +41453,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="544" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>20</v>
       </c>
@@ -41484,7 +41488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>20</v>
       </c>
@@ -41537,7 +41541,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="546" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>20</v>
       </c>
@@ -41581,7 +41585,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="547" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>20</v>
       </c>
@@ -41622,7 +41626,7 @@
         <v>4766</v>
       </c>
     </row>
-    <row r="548" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>20</v>
       </c>
@@ -41660,7 +41664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>20</v>
       </c>
@@ -41698,7 +41702,7 @@
         <v>4780</v>
       </c>
     </row>
-    <row r="550" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>20</v>
       </c>
@@ -41751,7 +41755,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="551" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>20</v>
       </c>
@@ -41807,7 +41811,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="552" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>20</v>
       </c>
@@ -41857,7 +41861,7 @@
         <v>4812</v>
       </c>
     </row>
-    <row r="553" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>20</v>
       </c>
@@ -41907,7 +41911,7 @@
         <v>4821</v>
       </c>
     </row>
-    <row r="554" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>20</v>
       </c>
@@ -41951,7 +41955,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="555" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>20</v>
       </c>
@@ -42004,7 +42008,7 @@
         <v>4840</v>
       </c>
     </row>
-    <row r="556" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>20</v>
       </c>
@@ -42051,7 +42055,7 @@
         <v>4849</v>
       </c>
     </row>
-    <row r="557" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>20</v>
       </c>
@@ -42110,7 +42114,7 @@
         <v>4861</v>
       </c>
     </row>
-    <row r="558" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>20</v>
       </c>
@@ -42160,7 +42164,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="559" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>20</v>
       </c>
@@ -42210,7 +42214,7 @@
         <v>4880</v>
       </c>
     </row>
-    <row r="560" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>20</v>
       </c>
@@ -42266,7 +42270,7 @@
         <v>4892</v>
       </c>
     </row>
-    <row r="561" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>20</v>
       </c>
@@ -42304,7 +42308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>20</v>
       </c>
@@ -42348,7 +42352,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="563" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>20</v>
       </c>
@@ -42404,7 +42408,7 @@
         <v>4918</v>
       </c>
     </row>
-    <row r="564" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>20</v>
       </c>
@@ -42436,7 +42440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>20</v>
       </c>
@@ -42489,7 +42493,7 @@
         <v>4933</v>
       </c>
     </row>
-    <row r="566" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>20</v>
       </c>
@@ -42539,7 +42543,7 @@
         <v>4943</v>
       </c>
     </row>
-    <row r="567" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>20</v>
       </c>
@@ -42586,7 +42590,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="568" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>20</v>
       </c>
@@ -42642,7 +42646,7 @@
         <v>4962</v>
       </c>
     </row>
-    <row r="569" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>20</v>
       </c>
@@ -42695,7 +42699,7 @@
         <v>4973</v>
       </c>
     </row>
-    <row r="570" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>20</v>
       </c>
@@ -42739,7 +42743,7 @@
         <v>4979</v>
       </c>
     </row>
-    <row r="571" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>20</v>
       </c>
@@ -42774,7 +42778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>20</v>
       </c>
@@ -42824,7 +42828,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="573" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>20</v>
       </c>
@@ -42874,7 +42878,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="574" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>20</v>
       </c>
@@ -42924,7 +42928,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="575" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>20</v>
       </c>
@@ -42974,7 +42978,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="576" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>20</v>
       </c>
@@ -43027,7 +43031,7 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="577" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>20</v>
       </c>
@@ -43062,7 +43066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>20</v>
       </c>
@@ -43115,7 +43119,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="579" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>20</v>
       </c>
@@ -43171,7 +43175,7 @@
         <v>5052</v>
       </c>
     </row>
-    <row r="580" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>20</v>
       </c>
@@ -43224,7 +43228,7 @@
         <v>5063</v>
       </c>
     </row>
-    <row r="581" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>20</v>
       </c>
@@ -43274,7 +43278,7 @@
         <v>5073</v>
       </c>
     </row>
-    <row r="582" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>20</v>
       </c>
